--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H2">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.080938</v>
       </c>
       <c r="O2">
-        <v>0.0008941297188036159</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="P2">
-        <v>0.0008941297188036158</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="Q2">
-        <v>0.7639641233986666</v>
+        <v>0.9486149164873332</v>
       </c>
       <c r="R2">
-        <v>6.875677110588</v>
+        <v>8.537534248385999</v>
       </c>
       <c r="S2">
-        <v>0.0002130331823534396</v>
+        <v>7.534428882500299E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002130331823534396</v>
+        <v>7.534428882500301E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H3">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.33306466666667</v>
+        <v>40.972402</v>
       </c>
       <c r="N3">
-        <v>33.999194</v>
+        <v>122.917206</v>
       </c>
       <c r="O3">
-        <v>0.3755923023891076</v>
+        <v>0.5110542630933305</v>
       </c>
       <c r="P3">
-        <v>0.3755923023891076</v>
+        <v>0.5110542630933306</v>
       </c>
       <c r="Q3">
-        <v>320.9143349288494</v>
+        <v>1440.622391269198</v>
       </c>
       <c r="R3">
-        <v>2888.229014359644</v>
+        <v>12965.60152142278</v>
       </c>
       <c r="S3">
-        <v>0.08948771275880267</v>
+        <v>0.114422267296281</v>
       </c>
       <c r="T3">
-        <v>0.08948771275880267</v>
+        <v>0.114422267296281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H4">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.005178666666666667</v>
+        <v>39.172931</v>
       </c>
       <c r="N4">
-        <v>0.015536</v>
+        <v>117.518793</v>
       </c>
       <c r="O4">
-        <v>0.0001716276571120238</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="P4">
-        <v>0.0001716276571120237</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="Q4">
-        <v>0.1466424500373334</v>
+        <v>1377.351553131869</v>
       </c>
       <c r="R4">
-        <v>1.319782050336</v>
+        <v>12396.16397818682</v>
       </c>
       <c r="S4">
-        <v>4.089159011889396E-05</v>
+        <v>0.1093969443544162</v>
       </c>
       <c r="T4">
-        <v>4.089159011889395E-05</v>
+        <v>0.1093969443544162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.316642</v>
+        <v>32.208719</v>
       </c>
       <c r="H5">
-        <v>84.949926</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I5">
-        <v>0.2382575792676785</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J5">
-        <v>0.2382575792676785</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>18.80862433333333</v>
+        <v>0.02697933333333333</v>
       </c>
       <c r="N5">
-        <v>56.425873</v>
+        <v>0.080938</v>
       </c>
       <c r="O5">
-        <v>0.6233419402349768</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="P5">
-        <v>0.6233419402349767</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="Q5">
-        <v>532.5970817594887</v>
+        <v>0.8689697661406667</v>
       </c>
       <c r="R5">
-        <v>4793.373735835398</v>
+        <v>7.820727895266</v>
       </c>
       <c r="S5">
-        <v>0.1485159417364035</v>
+        <v>6.901842665803362E-05</v>
       </c>
       <c r="T5">
-        <v>0.1485159417364035</v>
+        <v>6.901842665803363E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I6">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J6">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02697933333333333</v>
+        <v>40.972402</v>
       </c>
       <c r="N6">
-        <v>0.080938</v>
+        <v>122.917206</v>
       </c>
       <c r="O6">
-        <v>0.0008941297188036159</v>
+        <v>0.5110542630933305</v>
       </c>
       <c r="P6">
-        <v>0.0008941297188036158</v>
+        <v>0.5110542630933306</v>
       </c>
       <c r="Q6">
-        <v>0.8689697661406667</v>
+        <v>1319.668582773038</v>
       </c>
       <c r="R6">
-        <v>7.820727895266</v>
+        <v>11877.01724495734</v>
       </c>
       <c r="S6">
-        <v>0.0002423142513896138</v>
+        <v>0.1048154410452619</v>
       </c>
       <c r="T6">
-        <v>0.0002423142513896137</v>
+        <v>0.104815441045262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.33306466666667</v>
+        <v>39.172931</v>
       </c>
       <c r="N7">
-        <v>33.999194</v>
+        <v>117.518793</v>
       </c>
       <c r="O7">
-        <v>0.3755923023891076</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="P7">
-        <v>0.3755923023891076</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="Q7">
-        <v>365.0234952574954</v>
+        <v>1261.709926985389</v>
       </c>
       <c r="R7">
-        <v>3285.211457317459</v>
+        <v>11355.3893428685</v>
       </c>
       <c r="S7">
-        <v>0.1017876552665034</v>
+        <v>0.1002120412613499</v>
       </c>
       <c r="T7">
-        <v>0.1017876552665034</v>
+        <v>0.1002120412613499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.208719</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H8">
-        <v>96.62615700000001</v>
+        <v>154.600696</v>
       </c>
       <c r="I8">
-        <v>0.2710057011792882</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J8">
-        <v>0.2710057011792882</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.005178666666666667</v>
+        <v>0.02697933333333333</v>
       </c>
       <c r="N8">
-        <v>0.015536</v>
+        <v>0.080938</v>
       </c>
       <c r="O8">
-        <v>0.0001716276571120238</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="P8">
-        <v>0.0001716276571120237</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="Q8">
-        <v>0.1667982194613334</v>
+        <v>1.390341236983111</v>
       </c>
       <c r="R8">
-        <v>1.501183975152</v>
+        <v>12.513071132848</v>
       </c>
       <c r="S8">
-        <v>4.651207355740246E-05</v>
+        <v>0.0001104286575130681</v>
       </c>
       <c r="T8">
-        <v>4.651207355740245E-05</v>
+        <v>0.0001104286575130682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.208719</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H9">
-        <v>96.62615700000001</v>
+        <v>154.600696</v>
       </c>
       <c r="I9">
-        <v>0.2710057011792882</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J9">
-        <v>0.2710057011792882</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.80862433333333</v>
+        <v>40.972402</v>
       </c>
       <c r="N9">
-        <v>56.425873</v>
+        <v>122.917206</v>
       </c>
       <c r="O9">
-        <v>0.6233419402349768</v>
+        <v>0.5110542630933305</v>
       </c>
       <c r="P9">
-        <v>0.6233419402349767</v>
+        <v>0.5110542630933306</v>
       </c>
       <c r="Q9">
-        <v>605.8016959288957</v>
+        <v>2111.453955330598</v>
       </c>
       <c r="R9">
-        <v>5452.215263360062</v>
+        <v>19003.08559797538</v>
       </c>
       <c r="S9">
-        <v>0.1689292195878379</v>
+        <v>0.1677034525666219</v>
       </c>
       <c r="T9">
-        <v>0.1689292195878379</v>
+        <v>0.1677034525666219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H10">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I10">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J10">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02697933333333333</v>
+        <v>39.172931</v>
       </c>
       <c r="N10">
-        <v>0.080938</v>
+        <v>117.518793</v>
       </c>
       <c r="O10">
-        <v>0.0008941297188036159</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="P10">
-        <v>0.0008941297188036158</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="Q10">
-        <v>0.5131685664184443</v>
+        <v>2018.720798986659</v>
       </c>
       <c r="R10">
-        <v>4.618517097766</v>
+        <v>18168.48719087993</v>
       </c>
       <c r="S10">
-        <v>0.0001430982547996238</v>
+        <v>0.1603380679476408</v>
       </c>
       <c r="T10">
-        <v>0.0001430982547996238</v>
+        <v>0.1603380679476408</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.02080233333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H11">
-        <v>57.062407</v>
+        <v>1.786678</v>
       </c>
       <c r="I11">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J11">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>11.33306466666667</v>
+        <v>0.02697933333333333</v>
       </c>
       <c r="N11">
-        <v>33.999194</v>
+        <v>0.080938</v>
       </c>
       <c r="O11">
-        <v>0.3755923023891076</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="P11">
-        <v>0.3755923023891076</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="Q11">
-        <v>215.5639828555509</v>
+        <v>0.01606779377377777</v>
       </c>
       <c r="R11">
-        <v>1940.075845699958</v>
+        <v>0.144610143964</v>
       </c>
       <c r="S11">
-        <v>0.06011052071948703</v>
+        <v>1.276193820939419E-06</v>
       </c>
       <c r="T11">
-        <v>0.06011052071948703</v>
+        <v>1.276193820939419E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.02080233333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H12">
-        <v>57.062407</v>
+        <v>1.786678</v>
       </c>
       <c r="I12">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J12">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.005178666666666667</v>
+        <v>40.972402</v>
       </c>
       <c r="N12">
-        <v>0.015536</v>
+        <v>122.917206</v>
       </c>
       <c r="O12">
-        <v>0.0001716276571120238</v>
+        <v>0.5110542630933305</v>
       </c>
       <c r="P12">
-        <v>0.0001716276571120237</v>
+        <v>0.5110542630933306</v>
       </c>
       <c r="Q12">
-        <v>0.0985023950168889</v>
+        <v>24.40149642018534</v>
       </c>
       <c r="R12">
-        <v>0.886521555152</v>
+        <v>219.613467781668</v>
       </c>
       <c r="S12">
-        <v>2.746762320006617E-05</v>
+        <v>0.001938102977394273</v>
       </c>
       <c r="T12">
-        <v>2.746762320006617E-05</v>
+        <v>0.001938102977394274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.02080233333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H13">
-        <v>57.062407</v>
+        <v>1.786678</v>
       </c>
       <c r="I13">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J13">
-        <v>0.1600419399895302</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.80862433333333</v>
+        <v>39.172931</v>
       </c>
       <c r="N13">
-        <v>56.425873</v>
+        <v>117.518793</v>
       </c>
       <c r="O13">
-        <v>0.6233419402349768</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="P13">
-        <v>0.6233419402349767</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="Q13">
-        <v>357.7551256062568</v>
+        <v>23.32980467107267</v>
       </c>
       <c r="R13">
-        <v>3219.796130456311</v>
+        <v>209.968242039654</v>
       </c>
       <c r="S13">
-        <v>0.09976085339204348</v>
+        <v>0.00185298323989793</v>
       </c>
       <c r="T13">
-        <v>0.09976085339204346</v>
+        <v>0.00185298323989793</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3684403333333333</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H14">
-        <v>1.105321</v>
+        <v>112.629404</v>
       </c>
       <c r="I14">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J14">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,27 +1308,27 @@
         <v>0.080938</v>
       </c>
       <c r="O14">
-        <v>0.0008941297188036159</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="P14">
-        <v>0.0008941297188036158</v>
+        <v>0.0003365168416393062</v>
       </c>
       <c r="Q14">
-        <v>0.009940274566444442</v>
+        <v>1.012888744550222</v>
       </c>
       <c r="R14">
-        <v>0.089462471098</v>
+        <v>9.115998700952</v>
       </c>
       <c r="S14">
-        <v>2.771868808362308E-06</v>
+        <v>8.044927482226202E-05</v>
       </c>
       <c r="T14">
-        <v>2.771868808362307E-06</v>
+        <v>8.044927482226204E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3684403333333333</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H15">
-        <v>1.105321</v>
+        <v>112.629404</v>
       </c>
       <c r="I15">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J15">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.33306466666667</v>
+        <v>40.972402</v>
       </c>
       <c r="N15">
-        <v>33.999194</v>
+        <v>122.917206</v>
       </c>
       <c r="O15">
-        <v>0.3755923023891076</v>
+        <v>0.5110542630933305</v>
       </c>
       <c r="P15">
-        <v>0.3755923023891076</v>
+        <v>0.5110542630933306</v>
       </c>
       <c r="Q15">
-        <v>4.175558123474889</v>
+        <v>1538.232405902803</v>
       </c>
       <c r="R15">
-        <v>37.580023111274</v>
+        <v>13844.09165312522</v>
       </c>
       <c r="S15">
-        <v>0.00116436414734808</v>
+        <v>0.1221749992077713</v>
       </c>
       <c r="T15">
-        <v>0.00116436414734808</v>
+        <v>0.1221749992077714</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3684403333333333</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H16">
-        <v>1.105321</v>
+        <v>112.629404</v>
       </c>
       <c r="I16">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J16">
-        <v>0.003100074575388443</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.005178666666666667</v>
+        <v>39.172931</v>
       </c>
       <c r="N16">
-        <v>0.015536</v>
+        <v>117.518793</v>
       </c>
       <c r="O16">
-        <v>0.0001716276571120238</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="P16">
-        <v>0.0001716276571120237</v>
+        <v>0.4886092200650302</v>
       </c>
       <c r="Q16">
-        <v>0.001908029672888889</v>
+        <v>1470.674623821041</v>
       </c>
       <c r="R16">
-        <v>0.017172267056</v>
+        <v>13236.07161438937</v>
       </c>
       <c r="S16">
-        <v>5.320585362464704E-07</v>
+        <v>0.1168091832617253</v>
       </c>
       <c r="T16">
-        <v>5.320585362464703E-07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.3684403333333333</v>
-      </c>
-      <c r="H17">
-        <v>1.105321</v>
-      </c>
-      <c r="I17">
-        <v>0.003100074575388443</v>
-      </c>
-      <c r="J17">
-        <v>0.003100074575388443</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>18.80862433333333</v>
-      </c>
-      <c r="N17">
-        <v>56.425873</v>
-      </c>
-      <c r="O17">
-        <v>0.6233419402349768</v>
-      </c>
-      <c r="P17">
-        <v>0.6233419402349767</v>
-      </c>
-      <c r="Q17">
-        <v>6.929855818914778</v>
-      </c>
-      <c r="R17">
-        <v>62.368702370233</v>
-      </c>
-      <c r="S17">
-        <v>0.001932406500695754</v>
-      </c>
-      <c r="T17">
-        <v>0.001932406500695754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>38.93425766666667</v>
-      </c>
-      <c r="H18">
-        <v>116.802773</v>
-      </c>
-      <c r="I18">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="J18">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.02697933333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.080938</v>
-      </c>
-      <c r="O18">
-        <v>0.0008941297188036159</v>
-      </c>
-      <c r="P18">
-        <v>0.0008941297188036158</v>
-      </c>
-      <c r="Q18">
-        <v>1.050420315674889</v>
-      </c>
-      <c r="R18">
-        <v>9.453782841074</v>
-      </c>
-      <c r="S18">
-        <v>0.0002929121614525763</v>
-      </c>
-      <c r="T18">
-        <v>0.0002929121614525763</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>38.93425766666667</v>
-      </c>
-      <c r="H19">
-        <v>116.802773</v>
-      </c>
-      <c r="I19">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="J19">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>11.33306466666667</v>
-      </c>
-      <c r="N19">
-        <v>33.999194</v>
-      </c>
-      <c r="O19">
-        <v>0.3755923023891076</v>
-      </c>
-      <c r="P19">
-        <v>0.3755923023891076</v>
-      </c>
-      <c r="Q19">
-        <v>441.2444598849958</v>
-      </c>
-      <c r="R19">
-        <v>3971.200138964962</v>
-      </c>
-      <c r="S19">
-        <v>0.1230420494969664</v>
-      </c>
-      <c r="T19">
-        <v>0.1230420494969664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>38.93425766666667</v>
-      </c>
-      <c r="H20">
-        <v>116.802773</v>
-      </c>
-      <c r="I20">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="J20">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.005178666666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.015536</v>
-      </c>
-      <c r="O20">
-        <v>0.0001716276571120238</v>
-      </c>
-      <c r="P20">
-        <v>0.0001716276571120237</v>
-      </c>
-      <c r="Q20">
-        <v>0.2016275423697778</v>
-      </c>
-      <c r="R20">
-        <v>1.814647881328</v>
-      </c>
-      <c r="S20">
-        <v>5.62243116994147E-05</v>
-      </c>
-      <c r="T20">
-        <v>5.622431169941469E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>38.93425766666667</v>
-      </c>
-      <c r="H21">
-        <v>116.802773</v>
-      </c>
-      <c r="I21">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="J21">
-        <v>0.3275947049881145</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>18.80862433333333</v>
-      </c>
-      <c r="N21">
-        <v>56.425873</v>
-      </c>
-      <c r="O21">
-        <v>0.6233419402349768</v>
-      </c>
-      <c r="P21">
-        <v>0.6233419402349767</v>
-      </c>
-      <c r="Q21">
-        <v>732.2998261495366</v>
-      </c>
-      <c r="R21">
-        <v>6590.698435345829</v>
-      </c>
-      <c r="S21">
-        <v>0.2042035190179961</v>
-      </c>
-      <c r="T21">
-        <v>0.2042035190179961</v>
+        <v>0.1168091832617253</v>
       </c>
     </row>
   </sheetData>
